--- a/src/test/resources/testdata/batch12ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch12ExcelFile.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danacuzmiciov/eclipse-workspace/CucumberFrameworkBatch12/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danacuzmiciov/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC984DE-50FF-2E40-BE1A-48F05643F6AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8CE281-5895-CB49-A08F-2F09704D5543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19580" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{37BDCBD2-1E1C-914D-BC16-89325F61934C}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="19660" windowHeight="14100" xr2:uid="{0954E36D-E3E5-C549-B592-69727B062F19}"/>
   </bookViews>
   <sheets>
-    <sheet name="EmployeeDana" sheetId="1" r:id="rId1"/>
+    <sheet name="EmployeeData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -49,64 +49,56 @@
     <t>Photograph</t>
   </si>
   <si>
-    <t>Username</t>
+    <t>UserName</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Dana</t>
+    <t>Gulden</t>
+  </si>
+  <si>
+    <t>Svetlana</t>
+  </si>
+  <si>
+    <t>Michael</t>
   </si>
   <si>
     <t>MS</t>
   </si>
   <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>criss123</t>
-  </si>
-  <si>
-    <t>Hum@nhrm123</t>
-  </si>
-  <si>
-    <t>Valery</t>
-  </si>
-  <si>
-    <t>sasir</t>
-  </si>
-  <si>
-    <t>krisa232</t>
-  </si>
-  <si>
-    <t>Sumair</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>love879</t>
-  </si>
-  <si>
-    <t>/Users/danacuzmiciov/Desktop/excel1.jpeg</t>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Bideen</t>
+  </si>
+  <si>
+    <t>Ivanova</t>
+  </si>
+  <si>
+    <t>gul123</t>
+  </si>
+  <si>
+    <t>svet123</t>
+  </si>
+  <si>
+    <t>mic123</t>
+  </si>
+  <si>
+    <t>HoldYourHorse</t>
+  </si>
+  <si>
+    <t>/Users/danacuzmiciov/Desktop/cucumber.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,16 +121,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,21 +439,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ED6F56-6EA9-1943-BB48-61E1AE4E54EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC015A5-1ADC-D645-971D-7D8F668DDC32}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -492,67 +478,62 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
       </c>
       <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{A6B86C4D-55C7-234D-B726-58C7DE7AC273}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{3A882BE9-84FF-D34B-8E9E-C3DD9CADD98F}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{51E380DF-79EE-AD41-B9BD-1BB8BF397C5B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/batch12ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch12ExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danacuzmiciov/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8CE281-5895-CB49-A08F-2F09704D5543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D6F28-8A6E-2F4E-B39E-ECF480BD2FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="19660" windowHeight="14100" xr2:uid="{0954E36D-E3E5-C549-B592-69727B062F19}"/>
   </bookViews>
@@ -49,46 +49,46 @@
     <t>Photograph</t>
   </si>
   <si>
-    <t>UserName</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Gulden</t>
-  </si>
-  <si>
-    <t>Svetlana</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
-    <t>Pot</t>
-  </si>
-  <si>
-    <t>Bideen</t>
-  </si>
-  <si>
-    <t>Ivanova</t>
-  </si>
-  <si>
-    <t>gul123</t>
-  </si>
-  <si>
-    <t>svet123</t>
-  </si>
-  <si>
-    <t>mic123</t>
-  </si>
-  <si>
     <t>HoldYourHorse</t>
   </si>
   <si>
     <t>/Users/danacuzmiciov/Desktop/cucumber.jpeg</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Caty</t>
+  </si>
+  <si>
+    <t>Latte</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Dicaprio</t>
+  </si>
+  <si>
+    <t>Jeferson</t>
+  </si>
+  <si>
+    <t>sfsfsd1232123</t>
+  </si>
+  <si>
+    <t>archie2392</t>
+  </si>
+  <si>
+    <t>Brandy93392</t>
   </si>
 </sst>
 </file>
@@ -443,13 +443,14 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,70 +468,70 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/batch12ExcelFile.xlsx
+++ b/src/test/resources/testdata/batch12ExcelFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danacuzmiciov/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danacuzmiciov/eclipse-workspace/CucumberFrameworkBatch12/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D6F28-8A6E-2F4E-B39E-ECF480BD2FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511B8CD6-C97D-CD43-8003-9745A47C47C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="19660" windowHeight="14100" xr2:uid="{0954E36D-E3E5-C549-B592-69727B062F19}"/>
   </bookViews>
@@ -55,21 +55,12 @@
     <t>MS</t>
   </si>
   <si>
-    <t>HoldYourHorse</t>
-  </si>
-  <si>
     <t>/Users/danacuzmiciov/Desktop/cucumber.jpeg</t>
   </si>
   <si>
     <t>Username</t>
   </si>
   <si>
-    <t>Caty</t>
-  </si>
-  <si>
-    <t>Latte</t>
-  </si>
-  <si>
     <t>Chris</t>
   </si>
   <si>
@@ -82,23 +73,40 @@
     <t>Jeferson</t>
   </si>
   <si>
-    <t>sfsfsd1232123</t>
-  </si>
-  <si>
-    <t>archie2392</t>
-  </si>
-  <si>
-    <t>Brandy93392</t>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Grhdi</t>
+  </si>
+  <si>
+    <t>Hum@nhrm123</t>
+  </si>
+  <si>
+    <t>uefyihj6647899</t>
+  </si>
+  <si>
+    <t>archie26438376862820</t>
+  </si>
+  <si>
+    <t>fyug8675896249u589</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,13 +129,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,7 +479,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -476,65 +487,70 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{38359DC3-1117-7C45-A360-68A096EAFFB2}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{0CC21B17-9BB6-6C4D-91C7-0914682AECD1}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{0D512EC0-1DB0-974E-AF6C-7F70C6E85221}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>